--- a/labels/内科对应名单.xlsx
+++ b/labels/内科对应名单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\大学课程资料\BigAI\胃部病理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4709F7E0-B08B-4C06-90BD-51B517CC8561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA139F5-992C-458E-BF69-1CA58075F879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,19 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$B$1:$B$86</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -155,15 +142,9 @@
     <t>S201907546HE-8</t>
   </si>
   <si>
-    <t>S201907677HE-X3</t>
-  </si>
-  <si>
     <t>S201908072HE-2</t>
   </si>
   <si>
-    <t>S201912731HE-X5</t>
-  </si>
-  <si>
     <t>S201914355HE-3</t>
   </si>
   <si>
@@ -188,12 +169,6 @@
     <t>S201929427HE-2</t>
   </si>
   <si>
-    <t>S201930394HE-X9</t>
-  </si>
-  <si>
-    <t>S202000187HE-X5</t>
-  </si>
-  <si>
     <t>S202000677HE-3</t>
   </si>
   <si>
@@ -239,9 +214,6 @@
     <t>S202203907HE-4</t>
   </si>
   <si>
-    <t>S202204257-12</t>
-  </si>
-  <si>
     <t>S202207245HE-5</t>
   </si>
   <si>
@@ -294,13 +266,33 @@
   </si>
   <si>
     <t>S201919296-5</t>
+  </si>
+  <si>
+    <t>S201907677HE-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S201912731HE-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S201930394HE-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S202000187HE-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S202204257-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,6 +303,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -343,11 +343,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -832,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1154,8 +1157,8 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>39</v>
+      <c r="A40" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1163,15 +1166,15 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>41</v>
+      <c r="A42" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1179,7 +1182,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1187,7 +1190,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1195,7 +1198,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1203,7 +1206,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -1211,7 +1214,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1219,7 +1222,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1227,7 +1230,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1235,23 +1238,23 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>50</v>
+      <c r="A51" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>51</v>
+      <c r="A52" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -1259,7 +1262,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1267,7 +1270,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1275,7 +1278,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B55" s="1">
         <v>1</v>
@@ -1283,7 +1286,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -1291,7 +1294,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -1299,7 +1302,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1307,7 +1310,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1323,7 +1326,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1331,7 +1334,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1339,7 +1342,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1347,7 +1350,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1355,7 +1358,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1363,7 +1366,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1371,15 +1374,15 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>67</v>
+      <c r="A68" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -1387,7 +1390,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1395,7 +1398,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1403,7 +1406,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1411,7 +1414,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1419,7 +1422,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -1427,7 +1430,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1435,7 +1438,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1451,7 +1454,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1459,7 +1462,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1467,7 +1470,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1475,7 +1478,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1483,7 +1486,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1491,7 +1494,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1499,7 +1502,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1507,7 +1510,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1515,7 +1518,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1523,7 +1526,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B86">
         <v>0</v>
